--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5638310000000001</v>
+        <v>0.563831</v>
       </c>
       <c r="H2">
         <v>1.691493</v>
       </c>
       <c r="I2">
-        <v>0.7995848664879195</v>
+        <v>0.5426742997499485</v>
       </c>
       <c r="J2">
-        <v>0.7995848664879194</v>
+        <v>0.5426742997499486</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.21127</v>
+        <v>0.261293</v>
       </c>
       <c r="N2">
-        <v>0.63381</v>
+        <v>0.783879</v>
       </c>
       <c r="O2">
-        <v>0.07354932682191852</v>
+        <v>0.0361900776512412</v>
       </c>
       <c r="P2">
-        <v>0.07354932682191852</v>
+        <v>0.03619007765124121</v>
       </c>
       <c r="Q2">
-        <v>0.11912057537</v>
+        <v>0.147325093483</v>
       </c>
       <c r="R2">
-        <v>1.07208517833</v>
+        <v>1.325925841347</v>
       </c>
       <c r="S2">
-        <v>0.05880892866718007</v>
+        <v>0.01963942504728358</v>
       </c>
       <c r="T2">
-        <v>0.05880892866718006</v>
+        <v>0.01963942504728359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5638310000000001</v>
+        <v>0.563831</v>
       </c>
       <c r="H3">
         <v>1.691493</v>
       </c>
       <c r="I3">
-        <v>0.7995848664879195</v>
+        <v>0.5426742997499485</v>
       </c>
       <c r="J3">
-        <v>0.7995848664879194</v>
+        <v>0.5426742997499486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7775033333333332</v>
+        <v>0.7775033333333333</v>
       </c>
       <c r="N3">
         <v>2.33251</v>
       </c>
       <c r="O3">
-        <v>0.2706718737561622</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="P3">
-        <v>0.2706718737561622</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="Q3">
-        <v>0.4383804819366667</v>
+        <v>0.4383804819366666</v>
       </c>
       <c r="R3">
         <v>3.94542433743</v>
       </c>
       <c r="S3">
-        <v>0.216425134039356</v>
+        <v>0.05843906434161322</v>
       </c>
       <c r="T3">
-        <v>0.2164251340393559</v>
+        <v>0.05843906434161324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5638310000000001</v>
+        <v>0.563831</v>
       </c>
       <c r="H4">
         <v>1.691493</v>
       </c>
       <c r="I4">
-        <v>0.7995848664879195</v>
+        <v>0.5426742997499485</v>
       </c>
       <c r="J4">
-        <v>0.7995848664879194</v>
+        <v>0.5426742997499486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.860182</v>
+        <v>6.181221333333333</v>
       </c>
       <c r="N4">
-        <v>5.580546</v>
+        <v>18.543664</v>
       </c>
       <c r="O4">
-        <v>0.6475842943449143</v>
+        <v>0.8561227435593071</v>
       </c>
       <c r="P4">
-        <v>0.6475842943449143</v>
+        <v>0.8561227435593072</v>
       </c>
       <c r="Q4">
-        <v>1.048828277242</v>
+        <v>3.485164205594666</v>
       </c>
       <c r="R4">
-        <v>9.439454495178001</v>
+        <v>31.366477850352</v>
       </c>
       <c r="S4">
-        <v>0.5177986015334518</v>
+        <v>0.4645958103610517</v>
       </c>
       <c r="T4">
-        <v>0.5177986015334518</v>
+        <v>0.4645958103610519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5638310000000001</v>
+        <v>0.05363299999999999</v>
       </c>
       <c r="H5">
-        <v>1.691493</v>
+        <v>0.160899</v>
       </c>
       <c r="I5">
-        <v>0.7995848664879195</v>
+        <v>0.05162052231695133</v>
       </c>
       <c r="J5">
-        <v>0.7995848664879194</v>
+        <v>0.05162052231695134</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02353866666666667</v>
+        <v>0.261293</v>
       </c>
       <c r="N5">
-        <v>0.070616</v>
+        <v>0.783879</v>
       </c>
       <c r="O5">
-        <v>0.008194505077005093</v>
+        <v>0.0361900776512412</v>
       </c>
       <c r="P5">
-        <v>0.008194505077005093</v>
+        <v>0.03619007765124121</v>
       </c>
       <c r="Q5">
-        <v>0.01327182996533333</v>
+        <v>0.014013927469</v>
       </c>
       <c r="R5">
-        <v>0.119446469688</v>
+        <v>0.126125347221</v>
       </c>
       <c r="S5">
-        <v>0.006552202247931695</v>
+        <v>0.001868150711048098</v>
       </c>
       <c r="T5">
-        <v>0.006552202247931694</v>
+        <v>0.001868150711048099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1413236666666667</v>
+        <v>0.05363299999999999</v>
       </c>
       <c r="H6">
-        <v>0.423971</v>
+        <v>0.160899</v>
       </c>
       <c r="I6">
-        <v>0.2004151335120805</v>
+        <v>0.05162052231695133</v>
       </c>
       <c r="J6">
-        <v>0.2004151335120805</v>
+        <v>0.05162052231695134</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.21127</v>
+        <v>0.7775033333333333</v>
       </c>
       <c r="N6">
-        <v>0.63381</v>
+        <v>2.33251</v>
       </c>
       <c r="O6">
-        <v>0.07354932682191852</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="P6">
-        <v>0.07354932682191852</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="Q6">
-        <v>0.02985745105666666</v>
+        <v>0.04169983627666666</v>
       </c>
       <c r="R6">
-        <v>0.26871705951</v>
+        <v>0.37529852649</v>
       </c>
       <c r="S6">
-        <v>0.01474039815473845</v>
+        <v>0.00555886841595042</v>
       </c>
       <c r="T6">
-        <v>0.01474039815473845</v>
+        <v>0.005558868415950422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1413236666666667</v>
+        <v>0.05363299999999999</v>
       </c>
       <c r="H7">
-        <v>0.423971</v>
+        <v>0.160899</v>
       </c>
       <c r="I7">
-        <v>0.2004151335120805</v>
+        <v>0.05162052231695133</v>
       </c>
       <c r="J7">
-        <v>0.2004151335120805</v>
+        <v>0.05162052231695134</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +865,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7775033333333332</v>
+        <v>6.181221333333333</v>
       </c>
       <c r="N7">
-        <v>2.33251</v>
+        <v>18.543664</v>
       </c>
       <c r="O7">
-        <v>0.2706718737561622</v>
+        <v>0.8561227435593071</v>
       </c>
       <c r="P7">
-        <v>0.2706718737561622</v>
+        <v>0.8561227435593072</v>
       </c>
       <c r="Q7">
-        <v>0.1098796219122222</v>
+        <v>0.3315174437706666</v>
       </c>
       <c r="R7">
-        <v>0.9889165972099998</v>
+        <v>2.983656993936</v>
       </c>
       <c r="S7">
-        <v>0.05424673971680626</v>
+        <v>0.04419350318995281</v>
       </c>
       <c r="T7">
-        <v>0.05424673971680626</v>
+        <v>0.04419350318995283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.421522</v>
+      </c>
+      <c r="H8">
+        <v>1.264566</v>
+      </c>
+      <c r="I8">
+        <v>0.4057051779331001</v>
+      </c>
+      <c r="J8">
+        <v>0.4057051779331002</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>0.1413236666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.423971</v>
-      </c>
-      <c r="I8">
-        <v>0.2004151335120805</v>
-      </c>
-      <c r="J8">
-        <v>0.2004151335120805</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>1.860182</v>
+        <v>0.261293</v>
       </c>
       <c r="N8">
-        <v>5.580546</v>
+        <v>0.783879</v>
       </c>
       <c r="O8">
-        <v>0.6475842943449143</v>
+        <v>0.0361900776512412</v>
       </c>
       <c r="P8">
-        <v>0.6475842943449143</v>
+        <v>0.03619007765124121</v>
       </c>
       <c r="Q8">
-        <v>0.2628877409073333</v>
+        <v>0.110140747946</v>
       </c>
       <c r="R8">
-        <v>2.365989668166</v>
+        <v>0.9912667315139999</v>
       </c>
       <c r="S8">
-        <v>0.1297856928114625</v>
+        <v>0.01468250189290952</v>
       </c>
       <c r="T8">
-        <v>0.1297856928114625</v>
+        <v>0.01468250189290953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.421522</v>
+      </c>
+      <c r="H9">
+        <v>1.264566</v>
+      </c>
+      <c r="I9">
+        <v>0.4057051779331001</v>
+      </c>
+      <c r="J9">
+        <v>0.4057051779331002</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7775033333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.33251</v>
+      </c>
+      <c r="O9">
+        <v>0.1076871787894517</v>
+      </c>
+      <c r="P9">
+        <v>0.1076871787894517</v>
+      </c>
+      <c r="Q9">
+        <v>0.3277347600733333</v>
+      </c>
+      <c r="R9">
+        <v>2.94961284066</v>
+      </c>
+      <c r="S9">
+        <v>0.04368924603188807</v>
+      </c>
+      <c r="T9">
+        <v>0.04368924603188809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1413236666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.423971</v>
-      </c>
-      <c r="I9">
-        <v>0.2004151335120805</v>
-      </c>
-      <c r="J9">
-        <v>0.2004151335120805</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02353866666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.070616</v>
-      </c>
-      <c r="O9">
-        <v>0.008194505077005093</v>
-      </c>
-      <c r="P9">
-        <v>0.008194505077005093</v>
-      </c>
-      <c r="Q9">
-        <v>0.003326570681777778</v>
-      </c>
-      <c r="R9">
-        <v>0.029939136136</v>
-      </c>
-      <c r="S9">
-        <v>0.001642302829073397</v>
-      </c>
-      <c r="T9">
-        <v>0.001642302829073397</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.421522</v>
+      </c>
+      <c r="H10">
+        <v>1.264566</v>
+      </c>
+      <c r="I10">
+        <v>0.4057051779331001</v>
+      </c>
+      <c r="J10">
+        <v>0.4057051779331002</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.181221333333333</v>
+      </c>
+      <c r="N10">
+        <v>18.543664</v>
+      </c>
+      <c r="O10">
+        <v>0.8561227435593071</v>
+      </c>
+      <c r="P10">
+        <v>0.8561227435593072</v>
+      </c>
+      <c r="Q10">
+        <v>2.605520778869333</v>
+      </c>
+      <c r="R10">
+        <v>23.449687009824</v>
+      </c>
+      <c r="S10">
+        <v>0.3473334300083025</v>
+      </c>
+      <c r="T10">
+        <v>0.3473334300083026</v>
       </c>
     </row>
   </sheetData>
